--- a/Collections/Canada/#Canada#Regular#[1966-present]#circulation_quality.xlsx
+++ b/Collections/Canada/#Canada#Regular#[1966-present]#circulation_quality.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\Canada\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B09918F-CC6B-418C-98F4-FC5414FE1D99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BE76D38-2D5D-4C4A-9C85-EAADDD35D149}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="1¢" sheetId="3" r:id="rId1"/>
     <sheet name="5¢" sheetId="4" r:id="rId2"/>
     <sheet name="10¢" sheetId="5" r:id="rId3"/>
-    <sheet name="50¢" sheetId="6" r:id="rId4"/>
+    <sheet name="25¢" sheetId="6" r:id="rId4"/>
     <sheet name="1$" sheetId="7" r:id="rId5"/>
     <sheet name="2$" sheetId="8" r:id="rId6"/>
     <sheet name="Links" sheetId="2" r:id="rId7"/>
@@ -26,13 +26,13 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'1¢'!$B$2:$H$2</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'10¢'!$B$2:$I$2</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'2$'!$B$2:$G$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'25¢'!$B$2:$H$2</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'5¢'!$B$2:$H$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'50¢'!$B$2:$H$2</definedName>
     <definedName name="tags" localSheetId="4">'1$'!#REF!</definedName>
     <definedName name="tags" localSheetId="2">'10¢'!#REF!</definedName>
     <definedName name="tags" localSheetId="5">'2$'!#REF!</definedName>
+    <definedName name="tags" localSheetId="3">'25¢'!#REF!</definedName>
     <definedName name="tags" localSheetId="1">'5¢'!#REF!</definedName>
-    <definedName name="tags" localSheetId="3">'50¢'!#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1294,9 +1294,6 @@
     <t>43.205.000</t>
   </si>
   <si>
-    <t>50cents</t>
-  </si>
-  <si>
     <t>Large date, high raised pattern, no fold on the shoulder</t>
   </si>
   <si>
@@ -1712,17 +1709,28 @@
   </si>
   <si>
     <t>Subtype_4#Special_distinctions_2</t>
+  </si>
+  <si>
+    <t>25cents</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -2014,23 +2022,23 @@
   </borders>
   <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2042,125 +2050,128 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="5" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="6" borderId="3" xfId="6" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="6" borderId="3" xfId="6" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
@@ -4788,7 +4799,7 @@
       <pane xSplit="11" ySplit="2" topLeftCell="L3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C18" sqref="C18"/>
+      <selection pane="bottomRight" activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4802,41 +4813,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="38" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="27"/>
-      <c r="C1" s="39" t="s">
+      <c r="C1" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="33" t="s">
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="34"/>
-      <c r="I1" s="35" t="s">
+      <c r="H1" s="35"/>
+      <c r="I1" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="36"/>
+      <c r="J1" s="37"/>
     </row>
     <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="38"/>
+      <c r="A2" s="39"/>
       <c r="B2" s="28" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="31" t="s">
+        <v>371</v>
+      </c>
+      <c r="D2" s="31" t="s">
+        <v>370</v>
+      </c>
+      <c r="E2" s="31" t="s">
         <v>372</v>
       </c>
-      <c r="D2" s="31" t="s">
-        <v>371</v>
-      </c>
-      <c r="E2" s="31" t="s">
-        <v>373</v>
-      </c>
       <c r="F2" s="31" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G2" s="12" t="s">
         <v>96</v>
@@ -4869,7 +4880,7 @@
       </c>
       <c r="H3" s="9"/>
       <c r="I3" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" s="4" t="s">
         <v>0</v>
@@ -6167,7 +6178,7 @@
         <v>78</v>
       </c>
       <c r="C47" s="21" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D47" s="10"/>
       <c r="E47" s="21"/>
@@ -6527,7 +6538,7 @@
         <v>78</v>
       </c>
       <c r="C59" s="13" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D59" s="13" t="s">
         <v>74</v>
@@ -6559,7 +6570,7 @@
         <v>78</v>
       </c>
       <c r="C60" s="13" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D60" s="13" t="s">
         <v>75</v>
@@ -7699,7 +7710,7 @@
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="C1:F1"/>
   </mergeCells>
-  <phoneticPr fontId="14" type="noConversion"/>
+  <phoneticPr fontId="15" type="noConversion"/>
   <conditionalFormatting sqref="J3:J54 J56:J57 I74:I81 J61:J63 J65 J69:J82 J67">
     <cfRule type="colorScale" priority="82">
       <colorScale>
@@ -8204,7 +8215,7 @@
   <dimension ref="A1:K86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="11" ySplit="2" topLeftCell="L3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="11" ySplit="2" topLeftCell="L36" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="B2" sqref="B2:H2"/>
@@ -8221,41 +8232,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="38" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="27"/>
-      <c r="C1" s="39" t="s">
+      <c r="C1" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="33" t="s">
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="34"/>
-      <c r="I1" s="35" t="s">
+      <c r="H1" s="35"/>
+      <c r="I1" s="36" t="s">
         <v>101</v>
       </c>
-      <c r="J1" s="36"/>
+      <c r="J1" s="37"/>
     </row>
     <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="38"/>
+      <c r="A2" s="39"/>
       <c r="B2" s="28" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="31" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D2" s="31" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E2" s="31" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F2" s="31" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="G2" s="12" t="s">
         <v>96</v>
@@ -9488,7 +9499,7 @@
         <v>78</v>
       </c>
       <c r="C44" s="21" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D44" s="10"/>
       <c r="E44" s="10"/>
@@ -9972,7 +9983,7 @@
         <v>78</v>
       </c>
       <c r="C60" s="13" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D60" s="13"/>
       <c r="E60" s="13"/>
@@ -11246,10 +11257,10 @@
   <dimension ref="A1:M82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="13" ySplit="2" topLeftCell="N24" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="13" ySplit="2" topLeftCell="N42" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2:I2"/>
+      <selection pane="bottomRight" activeCell="K69" sqref="A69:K72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -11263,43 +11274,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="38" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="27"/>
-      <c r="C1" s="39" t="s">
+      <c r="C1" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="42" t="s">
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="43"/>
-      <c r="I1" s="44"/>
-      <c r="J1" s="35" t="s">
+      <c r="H1" s="44"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="36" t="s">
         <v>180</v>
       </c>
-      <c r="K1" s="45"/>
-      <c r="L1" s="45"/>
+      <c r="K1" s="46"/>
+      <c r="L1" s="46"/>
     </row>
     <row r="2" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="38"/>
+      <c r="A2" s="39"/>
       <c r="B2" s="28" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="31" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D2" s="31" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E2" s="31" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F2" s="31" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="G2" s="12" t="s">
         <v>96</v>
@@ -12740,7 +12751,7 @@
         <v>78</v>
       </c>
       <c r="C44" s="21" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D44" s="10"/>
       <c r="E44" s="10"/>
@@ -13192,7 +13203,7 @@
         <v>78</v>
       </c>
       <c r="C57" s="13" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D57" s="13"/>
       <c r="E57" s="13"/>
@@ -14563,10 +14574,10 @@
   <dimension ref="A1:K84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="11" ySplit="2" topLeftCell="L3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="11" ySplit="2" topLeftCell="L33" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2:H2"/>
+      <selection pane="bottomRight" activeCell="E57" sqref="E57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -14580,41 +14591,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="38" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="27"/>
-      <c r="C1" s="39" t="s">
+      <c r="C1" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="42" t="s">
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="43"/>
-      <c r="I1" s="35" t="s">
-        <v>239</v>
-      </c>
-      <c r="J1" s="45"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="36" t="s">
+        <v>378</v>
+      </c>
+      <c r="J1" s="46"/>
     </row>
     <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="38"/>
+      <c r="A2" s="39"/>
       <c r="B2" s="28" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="31" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D2" s="31" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E2" s="31" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F2" s="31" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="G2" s="12" t="s">
         <v>96</v>
@@ -14640,7 +14651,7 @@
       <c r="D3" s="13"/>
       <c r="E3" s="13"/>
       <c r="F3" s="13" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G3" s="15" t="s">
         <v>194</v>
@@ -14670,7 +14681,7 @@
       <c r="D4" s="21"/>
       <c r="E4" s="21"/>
       <c r="F4" s="21" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G4" s="20" t="s">
         <v>28</v>
@@ -15105,7 +15116,7 @@
       <c r="E19" s="13"/>
       <c r="F19" s="10"/>
       <c r="G19" s="15" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H19" s="9" t="s">
         <v>0</v>
@@ -15135,7 +15146,7 @@
       <c r="E20" s="13"/>
       <c r="F20" s="10"/>
       <c r="G20" s="9" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H20" s="9" t="s">
         <v>0</v>
@@ -15163,7 +15174,7 @@
       <c r="E21" s="10"/>
       <c r="F21" s="10"/>
       <c r="G21" s="9" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H21" s="9" t="s">
         <v>0</v>
@@ -15191,7 +15202,7 @@
       <c r="E22" s="10"/>
       <c r="F22" s="10"/>
       <c r="G22" s="9" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H22" s="9" t="s">
         <v>0</v>
@@ -15219,7 +15230,7 @@
       <c r="E23" s="10"/>
       <c r="F23" s="10"/>
       <c r="G23" s="9" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H23" s="9" t="s">
         <v>0</v>
@@ -15247,7 +15258,7 @@
       <c r="E24" s="10"/>
       <c r="F24" s="10"/>
       <c r="G24" s="9" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H24" s="9" t="s">
         <v>0</v>
@@ -15309,7 +15320,7 @@
       <c r="E26" s="10"/>
       <c r="F26" s="10"/>
       <c r="G26" s="9" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H26" s="9" t="s">
         <v>0</v>
@@ -15337,7 +15348,7 @@
       <c r="E27" s="10"/>
       <c r="F27" s="10"/>
       <c r="G27" s="9" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H27" s="9" t="s">
         <v>0</v>
@@ -15365,7 +15376,7 @@
       <c r="E28" s="10"/>
       <c r="F28" s="10"/>
       <c r="G28" s="9" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H28" s="9" t="s">
         <v>0</v>
@@ -15393,7 +15404,7 @@
       <c r="E29" s="10"/>
       <c r="F29" s="10"/>
       <c r="G29" s="9" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H29" s="9" t="s">
         <v>0</v>
@@ -15421,7 +15432,7 @@
       <c r="E30" s="10"/>
       <c r="F30" s="10"/>
       <c r="G30" s="9" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H30" s="9" t="s">
         <v>0</v>
@@ -15449,7 +15460,7 @@
       <c r="E31" s="10"/>
       <c r="F31" s="10"/>
       <c r="G31" s="9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H31" s="9" t="s">
         <v>0</v>
@@ -15477,7 +15488,7 @@
       <c r="E32" s="10"/>
       <c r="F32" s="10"/>
       <c r="G32" s="9" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H32" s="9" t="s">
         <v>0</v>
@@ -15505,7 +15516,7 @@
       <c r="E33" s="10"/>
       <c r="F33" s="10"/>
       <c r="G33" s="9" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H33" s="9" t="s">
         <v>0</v>
@@ -15533,7 +15544,7 @@
       <c r="E34" s="13"/>
       <c r="F34" s="13"/>
       <c r="G34" s="9" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H34" s="9" t="s">
         <v>0</v>
@@ -15561,7 +15572,7 @@
       <c r="E35" s="13"/>
       <c r="F35" s="13"/>
       <c r="G35" s="15" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H35" s="9" t="s">
         <v>0</v>
@@ -15589,7 +15600,7 @@
       <c r="E36" s="10"/>
       <c r="F36" s="10"/>
       <c r="G36" s="9" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H36" s="9" t="s">
         <v>0</v>
@@ -15617,7 +15628,7 @@
       <c r="E37" s="10"/>
       <c r="F37" s="10"/>
       <c r="G37" s="9" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H37" s="9" t="s">
         <v>0</v>
@@ -15645,7 +15656,7 @@
       <c r="E38" s="10"/>
       <c r="F38" s="10"/>
       <c r="G38" s="9" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H38" s="9" t="s">
         <v>0</v>
@@ -15673,7 +15684,7 @@
       <c r="E39" s="10"/>
       <c r="F39" s="10"/>
       <c r="G39" s="9" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H39" s="9" t="s">
         <v>0</v>
@@ -15701,7 +15712,7 @@
       <c r="E40" s="10"/>
       <c r="F40" s="10"/>
       <c r="G40" s="9" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H40" s="9" t="s">
         <v>0</v>
@@ -15729,7 +15740,7 @@
       <c r="E41" s="10"/>
       <c r="F41" s="10"/>
       <c r="G41" s="9" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H41" s="9" t="s">
         <v>0</v>
@@ -15757,7 +15768,7 @@
       <c r="E42" s="13"/>
       <c r="F42" s="10"/>
       <c r="G42" s="9" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H42" s="9" t="s">
         <v>0</v>
@@ -15785,7 +15796,7 @@
       <c r="E43" s="13"/>
       <c r="F43" s="10"/>
       <c r="G43" s="9" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H43" s="9" t="s">
         <v>0</v>
@@ -15809,13 +15820,13 @@
         <v>78</v>
       </c>
       <c r="C44" s="21" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D44" s="10"/>
       <c r="E44" s="10"/>
       <c r="F44" s="10"/>
       <c r="G44" s="20" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H44" s="9" t="s">
         <v>0</v>
@@ -15843,7 +15854,7 @@
       <c r="E45" s="13"/>
       <c r="F45" s="10"/>
       <c r="G45" s="9" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H45" s="9" t="s">
         <v>0</v>
@@ -15871,7 +15882,7 @@
       <c r="E46" s="13"/>
       <c r="F46" s="10"/>
       <c r="G46" s="9" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H46" s="9" t="s">
         <v>0</v>
@@ -15899,7 +15910,7 @@
       <c r="E47" s="13"/>
       <c r="F47" s="10"/>
       <c r="G47" s="9" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H47" s="9" t="s">
         <v>0</v>
@@ -15927,7 +15938,7 @@
       <c r="E48" s="13"/>
       <c r="F48" s="10"/>
       <c r="G48" s="9" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H48" s="9" t="s">
         <v>0</v>
@@ -16041,7 +16052,7 @@
       <c r="E52" s="13"/>
       <c r="F52" s="13"/>
       <c r="G52" s="9" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H52" s="9" t="s">
         <v>0</v>
@@ -16127,7 +16138,7 @@
       <c r="E55" s="13"/>
       <c r="F55" s="13"/>
       <c r="G55" s="9" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H55" s="9" t="s">
         <v>0</v>
@@ -16187,7 +16198,7 @@
         <v>171</v>
       </c>
       <c r="G57" s="9" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H57" s="9" t="s">
         <v>0</v>
@@ -16215,7 +16226,7 @@
       <c r="E58" s="13"/>
       <c r="F58" s="13"/>
       <c r="G58" s="9" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H58" s="9" t="s">
         <v>0</v>
@@ -16239,13 +16250,13 @@
         <v>78</v>
       </c>
       <c r="C59" s="13" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D59" s="13"/>
       <c r="E59" s="13"/>
       <c r="F59" s="13"/>
       <c r="G59" s="9" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H59" s="9" t="s">
         <v>0</v>
@@ -16275,7 +16286,7 @@
         <v>171</v>
       </c>
       <c r="G60" s="15" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H60" s="9" t="s">
         <v>0</v>
@@ -16305,7 +16316,7 @@
         <v>171</v>
       </c>
       <c r="G61" s="15" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H61" s="9" t="s">
         <v>0</v>
@@ -16365,7 +16376,7 @@
         <v>171</v>
       </c>
       <c r="G63" s="9" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H63" s="9" t="s">
         <v>0</v>
@@ -16395,7 +16406,7 @@
         <v>171</v>
       </c>
       <c r="G64" s="9" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H64" s="9" t="s">
         <v>0</v>
@@ -16455,7 +16466,7 @@
         <v>171</v>
       </c>
       <c r="G66" s="9" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H66" s="9" t="s">
         <v>0</v>
@@ -16488,7 +16499,7 @@
         <v>0</v>
       </c>
       <c r="H67" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I67" s="4" t="s">
         <v>0</v>
@@ -16518,7 +16529,7 @@
         <v>0</v>
       </c>
       <c r="H68" s="9" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="I68" s="4" t="s">
         <v>0</v>
@@ -16548,7 +16559,7 @@
         <v>0</v>
       </c>
       <c r="H69" s="9" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="I69" s="4" t="s">
         <v>0</v>
@@ -16578,7 +16589,7 @@
         <v>0</v>
       </c>
       <c r="H70" s="9" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="I70" s="4" t="s">
         <v>0</v>
@@ -16608,7 +16619,7 @@
         <v>0</v>
       </c>
       <c r="H71" s="9" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="I71" s="4" t="s">
         <v>0</v>
@@ -16638,7 +16649,7 @@
         <v>0</v>
       </c>
       <c r="H72" s="9" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="I72" s="4" t="s">
         <v>0</v>
@@ -16966,7 +16977,7 @@
         <v>0</v>
       </c>
       <c r="H83" s="20" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="I83" s="4" t="s">
         <v>0</v>
@@ -17497,10 +17508,10 @@
   <dimension ref="A1:K87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="11" ySplit="2" topLeftCell="L3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="11" ySplit="2" topLeftCell="L42" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C8" sqref="C8"/>
+      <selection pane="bottomRight" activeCell="H72" sqref="H72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -17514,41 +17525,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="38" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="27"/>
-      <c r="C1" s="39" t="s">
+      <c r="C1" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="42" t="s">
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="43"/>
-      <c r="I1" s="46" t="s">
-        <v>290</v>
-      </c>
-      <c r="J1" s="47"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="47" t="s">
+        <v>289</v>
+      </c>
+      <c r="J1" s="48"/>
     </row>
     <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="38"/>
+      <c r="A2" s="39"/>
       <c r="B2" s="28" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="31" t="s">
+        <v>371</v>
+      </c>
+      <c r="D2" s="31" t="s">
+        <v>374</v>
+      </c>
+      <c r="E2" s="31" t="s">
         <v>372</v>
       </c>
-      <c r="D2" s="31" t="s">
+      <c r="F2" s="31" t="s">
         <v>375</v>
-      </c>
-      <c r="E2" s="31" t="s">
-        <v>373</v>
-      </c>
-      <c r="F2" s="31" t="s">
-        <v>376</v>
       </c>
       <c r="G2" s="12" t="s">
         <v>96</v>
@@ -17572,12 +17583,12 @@
       </c>
       <c r="C3" s="13"/>
       <c r="D3" s="22" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E3" s="22"/>
       <c r="F3" s="22"/>
       <c r="G3" s="15" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H3" s="9" t="s">
         <v>0</v>
@@ -17602,7 +17613,7 @@
       </c>
       <c r="C4" s="13"/>
       <c r="D4" s="32" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E4" s="32"/>
       <c r="F4" s="21"/>
@@ -17635,7 +17646,7 @@
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="15" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H5" s="9" t="s">
         <v>0</v>
@@ -17663,7 +17674,7 @@
       <c r="E6" s="13"/>
       <c r="F6" s="13"/>
       <c r="G6" s="9" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H6" s="9" t="s">
         <v>0</v>
@@ -17691,7 +17702,7 @@
       <c r="E7" s="10"/>
       <c r="F7" s="10"/>
       <c r="G7" s="9" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H7" s="9" t="s">
         <v>0</v>
@@ -17719,7 +17730,7 @@
       <c r="E8" s="10"/>
       <c r="F8" s="10"/>
       <c r="G8" s="9" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H8" s="9" t="s">
         <v>0</v>
@@ -17781,7 +17792,7 @@
       <c r="E10" s="10"/>
       <c r="F10" s="10"/>
       <c r="G10" s="9" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H10" s="9" t="s">
         <v>0</v>
@@ -17809,7 +17820,7 @@
       <c r="E11" s="10"/>
       <c r="F11" s="10"/>
       <c r="G11" s="9" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H11" s="9" t="s">
         <v>0</v>
@@ -17837,7 +17848,7 @@
       <c r="E12" s="10"/>
       <c r="F12" s="10"/>
       <c r="G12" s="9" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H12" s="9" t="s">
         <v>0</v>
@@ -17865,7 +17876,7 @@
       <c r="E13" s="10"/>
       <c r="F13" s="10"/>
       <c r="G13" s="9" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H13" s="9" t="s">
         <v>0</v>
@@ -17893,7 +17904,7 @@
       <c r="E14" s="10"/>
       <c r="F14" s="10"/>
       <c r="G14" s="9" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H14" s="9" t="s">
         <v>0</v>
@@ -17957,7 +17968,7 @@
       </c>
       <c r="F16" s="13"/>
       <c r="G16" s="9" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="H16" s="9" t="s">
         <v>0</v>
@@ -17987,7 +17998,7 @@
       </c>
       <c r="F17" s="10"/>
       <c r="G17" s="9" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H17" s="9" t="s">
         <v>0</v>
@@ -18046,12 +18057,12 @@
       </c>
       <c r="C19" s="13"/>
       <c r="D19" s="32" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E19" s="10"/>
       <c r="F19" s="10"/>
       <c r="G19" s="15" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H19" s="9" t="s">
         <v>0</v>
@@ -18076,12 +18087,12 @@
       </c>
       <c r="C20" s="13"/>
       <c r="D20" s="10" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E20" s="10"/>
       <c r="F20" s="10"/>
       <c r="G20" s="9" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H20" s="9" t="s">
         <v>0</v>
@@ -18174,12 +18185,12 @@
       </c>
       <c r="C23" s="13"/>
       <c r="D23" s="10" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E23" s="10"/>
       <c r="F23" s="10"/>
       <c r="G23" s="9" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H23" s="9" t="s">
         <v>0</v>
@@ -18272,12 +18283,12 @@
       </c>
       <c r="C26" s="13"/>
       <c r="D26" s="10" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E26" s="10"/>
       <c r="F26" s="10"/>
       <c r="G26" s="9" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H26" s="9" t="s">
         <v>0</v>
@@ -18302,12 +18313,12 @@
       </c>
       <c r="C27" s="13"/>
       <c r="D27" s="10" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E27" s="10"/>
       <c r="F27" s="10"/>
       <c r="G27" s="9" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H27" s="9" t="s">
         <v>0</v>
@@ -18332,12 +18343,12 @@
       </c>
       <c r="C28" s="13"/>
       <c r="D28" s="32" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E28" s="22"/>
       <c r="F28" s="22"/>
       <c r="G28" s="9" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H28" s="9" t="s">
         <v>0</v>
@@ -18362,12 +18373,12 @@
       </c>
       <c r="C29" s="13"/>
       <c r="D29" s="22" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E29" s="22"/>
       <c r="F29" s="10"/>
       <c r="G29" s="9" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H29" s="9" t="s">
         <v>0</v>
@@ -18392,12 +18403,12 @@
       </c>
       <c r="C30" s="13"/>
       <c r="D30" s="22" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E30" s="22"/>
       <c r="F30" s="10"/>
       <c r="G30" s="9" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H30" s="9" t="s">
         <v>0</v>
@@ -18422,12 +18433,12 @@
       </c>
       <c r="C31" s="13"/>
       <c r="D31" s="22" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E31" s="22"/>
       <c r="F31" s="10"/>
       <c r="G31" s="9" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H31" s="9" t="s">
         <v>0</v>
@@ -18452,12 +18463,12 @@
       </c>
       <c r="C32" s="13"/>
       <c r="D32" s="22" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E32" s="22"/>
       <c r="F32" s="10"/>
       <c r="G32" s="9" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H32" s="9" t="s">
         <v>0</v>
@@ -18482,12 +18493,12 @@
       </c>
       <c r="C33" s="13"/>
       <c r="D33" s="22" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E33" s="22"/>
       <c r="F33" s="13"/>
       <c r="G33" s="9" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H33" s="9" t="s">
         <v>0</v>
@@ -18512,12 +18523,12 @@
       </c>
       <c r="C34" s="10"/>
       <c r="D34" s="22" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E34" s="22"/>
       <c r="F34" s="13"/>
       <c r="G34" s="15" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H34" s="9" t="s">
         <v>0</v>
@@ -18542,12 +18553,12 @@
       </c>
       <c r="C35" s="10"/>
       <c r="D35" s="22" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E35" s="22"/>
       <c r="F35" s="10"/>
       <c r="G35" s="9" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H35" s="9" t="s">
         <v>0</v>
@@ -18572,12 +18583,12 @@
       </c>
       <c r="C36" s="13"/>
       <c r="D36" s="22" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E36" s="22"/>
       <c r="F36" s="10"/>
       <c r="G36" s="9" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H36" s="9" t="s">
         <v>0</v>
@@ -18602,12 +18613,12 @@
       </c>
       <c r="C37" s="10"/>
       <c r="D37" s="22" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E37" s="22"/>
       <c r="F37" s="10"/>
       <c r="G37" s="9" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H37" s="9" t="s">
         <v>0</v>
@@ -18632,12 +18643,12 @@
       </c>
       <c r="C38" s="13"/>
       <c r="D38" s="22" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E38" s="22"/>
       <c r="F38" s="10"/>
       <c r="G38" s="9" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H38" s="9" t="s">
         <v>0</v>
@@ -18665,7 +18676,7 @@
       <c r="E39" s="22"/>
       <c r="F39" s="10"/>
       <c r="G39" s="9" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H39" s="9" t="s">
         <v>0</v>
@@ -18693,7 +18704,7 @@
       <c r="E40" s="10"/>
       <c r="F40" s="10"/>
       <c r="G40" s="9" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H40" s="9" t="s">
         <v>0</v>
@@ -18721,7 +18732,7 @@
       <c r="E41" s="10"/>
       <c r="F41" s="10"/>
       <c r="G41" s="9" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H41" s="9" t="s">
         <v>0</v>
@@ -18749,7 +18760,7 @@
       <c r="E42" s="13"/>
       <c r="F42" s="10"/>
       <c r="G42" s="9" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H42" s="9" t="s">
         <v>0</v>
@@ -18777,7 +18788,7 @@
       <c r="E43" s="13"/>
       <c r="F43" s="10"/>
       <c r="G43" s="9" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H43" s="9" t="s">
         <v>0</v>
@@ -18801,13 +18812,13 @@
         <v>78</v>
       </c>
       <c r="C44" s="21" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D44" s="10"/>
       <c r="E44" s="10"/>
       <c r="F44" s="10"/>
       <c r="G44" s="23" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H44" s="9" t="s">
         <v>0</v>
@@ -18835,7 +18846,7 @@
       <c r="E45" s="13"/>
       <c r="F45" s="10"/>
       <c r="G45" s="9" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H45" s="9" t="s">
         <v>0</v>
@@ -18863,7 +18874,7 @@
       <c r="E46" s="13"/>
       <c r="F46" s="10"/>
       <c r="G46" s="9" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H46" s="9" t="s">
         <v>0</v>
@@ -18891,7 +18902,7 @@
       <c r="E47" s="13"/>
       <c r="F47" s="10"/>
       <c r="G47" s="9" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H47" s="9" t="s">
         <v>0</v>
@@ -18919,7 +18930,7 @@
       <c r="E48" s="13"/>
       <c r="F48" s="10"/>
       <c r="G48" s="9" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H48" s="9" t="s">
         <v>0</v>
@@ -19171,13 +19182,13 @@
         <v>78</v>
       </c>
       <c r="C57" s="13" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D57" s="13"/>
       <c r="E57" s="13"/>
       <c r="F57" s="13"/>
       <c r="G57" s="23" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H57" s="9" t="s">
         <v>0</v>
@@ -19255,11 +19266,11 @@
       <c r="C60" s="13"/>
       <c r="D60" s="22"/>
       <c r="E60" s="22" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F60" s="13"/>
       <c r="G60" s="15" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H60" s="9" t="s">
         <v>0</v>
@@ -19285,7 +19296,7 @@
       <c r="C61" s="13"/>
       <c r="D61" s="22"/>
       <c r="E61" s="22" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F61" s="13" t="s">
         <v>156</v>
@@ -19317,11 +19328,11 @@
       <c r="C62" s="10"/>
       <c r="D62" s="13"/>
       <c r="E62" s="13" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F62" s="13"/>
       <c r="G62" s="9" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H62" s="9" t="s">
         <v>0</v>
@@ -19347,11 +19358,11 @@
       <c r="C63" s="10"/>
       <c r="D63" s="22"/>
       <c r="E63" s="22" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F63" s="13"/>
       <c r="G63" s="9" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H63" s="9" t="s">
         <v>0</v>
@@ -19377,7 +19388,7 @@
       <c r="C64" s="10"/>
       <c r="D64" s="22"/>
       <c r="E64" s="22" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F64" s="13"/>
       <c r="G64" s="23" t="s">
@@ -19407,7 +19418,7 @@
       <c r="C65" s="10"/>
       <c r="D65" s="22"/>
       <c r="E65" s="22" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F65" s="13" t="s">
         <v>174</v>
@@ -19416,7 +19427,7 @@
         <v>0</v>
       </c>
       <c r="H65" s="9" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="I65" s="4" t="s">
         <v>0</v>
@@ -19439,11 +19450,11 @@
       <c r="C66" s="10"/>
       <c r="D66" s="22"/>
       <c r="E66" s="22" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F66" s="13"/>
       <c r="G66" s="9" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H66" s="9" t="s">
         <v>0</v>
@@ -19469,7 +19480,7 @@
       <c r="C67" s="10"/>
       <c r="D67" s="22"/>
       <c r="E67" s="22" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F67" s="13" t="s">
         <v>174</v>
@@ -19478,7 +19489,7 @@
         <v>0</v>
       </c>
       <c r="H67" s="9" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="I67" s="4" t="s">
         <v>0</v>
@@ -19501,7 +19512,7 @@
       <c r="C68" s="10"/>
       <c r="D68" s="22"/>
       <c r="E68" s="22" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F68" s="13" t="s">
         <v>174</v>
@@ -19510,7 +19521,7 @@
         <v>0</v>
       </c>
       <c r="H68" s="9" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="I68" s="4" t="s">
         <v>0</v>
@@ -19533,7 +19544,7 @@
       <c r="C69" s="10"/>
       <c r="D69" s="22"/>
       <c r="E69" s="22" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F69" s="13" t="s">
         <v>174</v>
@@ -19542,7 +19553,7 @@
         <v>0</v>
       </c>
       <c r="H69" s="9" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="I69" s="4" t="s">
         <v>0</v>
@@ -19565,7 +19576,7 @@
       <c r="C70" s="10"/>
       <c r="D70" s="22"/>
       <c r="E70" s="22" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F70" s="13" t="s">
         <v>174</v>
@@ -19574,7 +19585,7 @@
         <v>0</v>
       </c>
       <c r="H70" s="9" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I70" s="4" t="s">
         <v>0</v>
@@ -19596,12 +19607,12 @@
       </c>
       <c r="C71" s="10"/>
       <c r="D71" s="22"/>
-      <c r="E71" s="22" t="s">
-        <v>344</v>
+      <c r="E71" s="33" t="s">
+        <v>343</v>
       </c>
       <c r="F71" s="13"/>
       <c r="G71" s="9" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H71" s="9" t="s">
         <v>0</v>
@@ -19627,7 +19638,7 @@
       <c r="C72" s="10"/>
       <c r="D72" s="22"/>
       <c r="E72" s="22" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="F72" s="13" t="s">
         <v>174</v>
@@ -19636,13 +19647,13 @@
         <v>0</v>
       </c>
       <c r="H72" s="9" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="I72" s="4" t="s">
         <v>0</v>
       </c>
       <c r="J72" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K72" s="29" t="str">
         <f t="shared" si="1"/>
@@ -19659,7 +19670,7 @@
       <c r="C73" s="10"/>
       <c r="D73" s="22"/>
       <c r="E73" s="22" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F73" s="13"/>
       <c r="G73" s="23" t="s">
@@ -19689,7 +19700,7 @@
       <c r="C74" s="10"/>
       <c r="D74" s="22"/>
       <c r="E74" s="22" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="F74" s="13" t="s">
         <v>174</v>
@@ -19721,7 +19732,7 @@
       <c r="C75" s="10"/>
       <c r="D75" s="22"/>
       <c r="E75" s="22" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F75" s="13"/>
       <c r="G75" s="23" t="s">
@@ -19751,7 +19762,7 @@
       <c r="C76" s="10"/>
       <c r="D76" s="22"/>
       <c r="E76" s="22" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="F76" s="13" t="s">
         <v>174</v>
@@ -19783,7 +19794,7 @@
       <c r="C77" s="10"/>
       <c r="D77" s="22"/>
       <c r="E77" s="22" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F77" s="13"/>
       <c r="G77" s="23" t="s">
@@ -19813,7 +19824,7 @@
       <c r="C78" s="10"/>
       <c r="D78" s="22"/>
       <c r="E78" s="22" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="F78" s="13" t="s">
         <v>174</v>
@@ -19845,7 +19856,7 @@
       <c r="C79" s="10"/>
       <c r="D79" s="13"/>
       <c r="E79" s="13" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="F79" s="13" t="s">
         <v>174</v>
@@ -19877,7 +19888,7 @@
       <c r="C80" s="10"/>
       <c r="D80" s="13"/>
       <c r="E80" s="13" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="F80" s="13" t="s">
         <v>174</v>
@@ -19909,7 +19920,7 @@
       <c r="C81" s="10"/>
       <c r="D81" s="13"/>
       <c r="E81" s="13" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="F81" s="13" t="s">
         <v>174</v>
@@ -19941,7 +19952,7 @@
       <c r="C82" s="10"/>
       <c r="D82" s="13"/>
       <c r="E82" s="13" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="F82" s="13" t="s">
         <v>174</v>
@@ -19973,7 +19984,7 @@
       <c r="C83" s="10"/>
       <c r="D83" s="13"/>
       <c r="E83" s="13" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="F83" s="13" t="s">
         <v>174</v>
@@ -20005,7 +20016,7 @@
       <c r="C84" s="10"/>
       <c r="D84" s="13"/>
       <c r="E84" s="13" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="F84" s="13" t="s">
         <v>174</v>
@@ -20037,7 +20048,7 @@
       <c r="C85" s="10"/>
       <c r="D85" s="13"/>
       <c r="E85" s="13" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="F85" s="13" t="s">
         <v>174</v>
@@ -20074,7 +20085,7 @@
         <v>0</v>
       </c>
       <c r="H86" s="23" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I86" s="4" t="s">
         <v>0</v>
@@ -20666,10 +20677,10 @@
   <dimension ref="A1:J81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="10" ySplit="2" topLeftCell="K24" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="10" ySplit="2" topLeftCell="K39" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D63" sqref="D63"/>
+      <selection pane="bottomRight" activeCell="K73" sqref="K73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -20683,37 +20694,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="38" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="27"/>
-      <c r="C1" s="39" t="s">
+      <c r="C1" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="40"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="42" t="s">
+      <c r="D1" s="41"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="43"/>
-      <c r="H1" s="46" t="s">
-        <v>348</v>
-      </c>
-      <c r="I1" s="47"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="47" t="s">
+        <v>347</v>
+      </c>
+      <c r="I1" s="48"/>
     </row>
     <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="38"/>
+      <c r="A2" s="39"/>
       <c r="B2" s="28" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="31" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D2" s="31" t="s">
+        <v>374</v>
+      </c>
+      <c r="E2" s="31" t="s">
         <v>375</v>
-      </c>
-      <c r="E2" s="31" t="s">
-        <v>376</v>
       </c>
       <c r="F2" s="12" t="s">
         <v>96</v>
@@ -22191,7 +22202,7 @@
       <c r="D47" s="13"/>
       <c r="E47" s="10"/>
       <c r="F47" s="9" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G47" s="9" t="s">
         <v>0</v>
@@ -22218,7 +22229,7 @@
       <c r="D48" s="13"/>
       <c r="E48" s="13"/>
       <c r="F48" s="17" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="G48" s="9" t="s">
         <v>0</v>
@@ -22245,7 +22256,7 @@
       <c r="D49" s="13"/>
       <c r="E49" s="13"/>
       <c r="F49" s="17" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="G49" s="9" t="s">
         <v>0</v>
@@ -22301,7 +22312,7 @@
       <c r="D51" s="13"/>
       <c r="E51" s="13"/>
       <c r="F51" s="17" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G51" s="9" t="s">
         <v>0</v>
@@ -22328,7 +22339,7 @@
       <c r="D52" s="13"/>
       <c r="E52" s="13"/>
       <c r="F52" s="17" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G52" s="9" t="s">
         <v>0</v>
@@ -22384,7 +22395,7 @@
       <c r="D54" s="13"/>
       <c r="E54" s="13"/>
       <c r="F54" s="17" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G54" s="9" t="s">
         <v>0</v>
@@ -22408,7 +22419,7 @@
         <v>78</v>
       </c>
       <c r="C55" s="13" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D55" s="13"/>
       <c r="E55" s="13" t="s">
@@ -22418,7 +22429,7 @@
         <v>0</v>
       </c>
       <c r="G55" s="24" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H55" s="4" t="s">
         <v>0</v>
@@ -22442,7 +22453,7 @@
       <c r="D56" s="13"/>
       <c r="E56" s="13"/>
       <c r="F56" s="17" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G56" s="9" t="s">
         <v>0</v>
@@ -22467,11 +22478,11 @@
       </c>
       <c r="C57" s="13"/>
       <c r="D57" s="25" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E57" s="13"/>
       <c r="F57" s="15" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="G57" s="9" t="s">
         <v>0</v>
@@ -22496,7 +22507,7 @@
       </c>
       <c r="C58" s="13"/>
       <c r="D58" s="25" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E58" s="13" t="s">
         <v>156</v>
@@ -22527,11 +22538,11 @@
       </c>
       <c r="C59" s="10"/>
       <c r="D59" s="25" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E59" s="13"/>
       <c r="F59" s="9" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="G59" s="9" t="s">
         <v>0</v>
@@ -22556,11 +22567,11 @@
       </c>
       <c r="C60" s="10"/>
       <c r="D60" s="25" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E60" s="13"/>
       <c r="F60" s="9" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="G60" s="9" t="s">
         <v>0</v>
@@ -22585,14 +22596,14 @@
       </c>
       <c r="C61" s="10"/>
       <c r="D61" s="25" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E61" s="13"/>
       <c r="F61" s="9" t="s">
         <v>0</v>
       </c>
       <c r="G61" s="9" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H61" s="4" t="s">
         <v>0</v>
@@ -22614,7 +22625,7 @@
       </c>
       <c r="C62" s="10"/>
       <c r="D62" s="25" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E62" s="13" t="s">
         <v>156</v>
@@ -22645,14 +22656,14 @@
       </c>
       <c r="C63" s="10"/>
       <c r="D63" s="25" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E63" s="13"/>
       <c r="F63" s="9" t="s">
         <v>0</v>
       </c>
       <c r="G63" s="9" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="H63" s="4" t="s">
         <v>0</v>
@@ -22674,14 +22685,14 @@
       </c>
       <c r="C64" s="10"/>
       <c r="D64" s="25" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E64" s="13"/>
       <c r="F64" s="9" t="s">
         <v>0</v>
       </c>
       <c r="G64" s="9" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="H64" s="4" t="s">
         <v>0</v>
@@ -22703,14 +22714,14 @@
       </c>
       <c r="C65" s="10"/>
       <c r="D65" s="25" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E65" s="13"/>
       <c r="F65" s="9" t="s">
         <v>0</v>
       </c>
       <c r="G65" s="9" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H65" s="4" t="s">
         <v>0</v>
@@ -22732,14 +22743,14 @@
       </c>
       <c r="C66" s="10"/>
       <c r="D66" s="25" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E66" s="13"/>
       <c r="F66" s="9" t="s">
         <v>0</v>
       </c>
       <c r="G66" s="9" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H66" s="4" t="s">
         <v>0</v>
@@ -22761,14 +22772,14 @@
       </c>
       <c r="C67" s="10"/>
       <c r="D67" s="25" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E67" s="13"/>
       <c r="F67" s="9" t="s">
         <v>0</v>
       </c>
       <c r="G67" s="9" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H67" s="4" t="s">
         <v>0</v>
@@ -22790,14 +22801,14 @@
       </c>
       <c r="C68" s="10"/>
       <c r="D68" s="25" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E68" s="13"/>
       <c r="F68" s="9" t="s">
         <v>0</v>
       </c>
       <c r="G68" s="9" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H68" s="4" t="s">
         <v>0</v>
@@ -22819,7 +22830,7 @@
       </c>
       <c r="C69" s="10"/>
       <c r="D69" s="22" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E69" s="13" t="s">
         <v>174</v>
@@ -22828,7 +22839,7 @@
         <v>0</v>
       </c>
       <c r="G69" s="9" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H69" s="4" t="s">
         <v>0</v>
@@ -22850,7 +22861,7 @@
       </c>
       <c r="C70" s="10"/>
       <c r="D70" s="22" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E70" s="13" t="s">
         <v>174</v>
@@ -22881,7 +22892,7 @@
       </c>
       <c r="C71" s="10"/>
       <c r="D71" s="22" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E71" s="13"/>
       <c r="F71" s="24" t="s">
@@ -22910,7 +22921,7 @@
       </c>
       <c r="C72" s="10"/>
       <c r="D72" s="22" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E72" s="13" t="s">
         <v>174</v>
@@ -22941,7 +22952,7 @@
       </c>
       <c r="C73" s="10"/>
       <c r="D73" s="22" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E73" s="13" t="s">
         <v>174</v>
@@ -22972,7 +22983,7 @@
       </c>
       <c r="C74" s="10"/>
       <c r="D74" s="22" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E74" s="13" t="s">
         <v>174</v>
@@ -23003,7 +23014,7 @@
       </c>
       <c r="C75" s="10"/>
       <c r="D75" s="22" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E75" s="13" t="s">
         <v>174</v>
@@ -23034,7 +23045,7 @@
       </c>
       <c r="C76" s="10"/>
       <c r="D76" s="22" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E76" s="13" t="s">
         <v>174</v>
@@ -23065,7 +23076,7 @@
       </c>
       <c r="C77" s="10"/>
       <c r="D77" s="22" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E77" s="13" t="s">
         <v>174</v>
@@ -23096,7 +23107,7 @@
       </c>
       <c r="C78" s="10"/>
       <c r="D78" s="22" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E78" s="13" t="s">
         <v>174</v>
@@ -23127,7 +23138,7 @@
       </c>
       <c r="C79" s="10"/>
       <c r="D79" s="22" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E79" s="13" t="s">
         <v>174</v>
@@ -23475,7 +23486,7 @@
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B15" sqref="B15"/>
+      <selection pane="bottomRight" activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
